--- a/uploadD/xxxx.xlsx
+++ b/uploadD/xxxx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>price</t>
   </si>
@@ -33,55 +33,91 @@
     <t>ปกติ</t>
   </si>
   <si>
-    <t>นางสาว ณัชกมล นุตะมาน</t>
+    <t>nameobject</t>
+  </si>
+  <si>
+    <t>nameuser</t>
+  </si>
+  <si>
+    <t>materialid</t>
+  </si>
+  <si>
+    <t>เราท์เตอร์</t>
+  </si>
+  <si>
+    <t>นาย แก้ว นุตะมาน</t>
+  </si>
+  <si>
+    <t>3A06</t>
+  </si>
+  <si>
+    <t>3A07</t>
+  </si>
+  <si>
+    <t>3A08</t>
+  </si>
+  <si>
+    <t>3A09</t>
+  </si>
+  <si>
+    <t>5000-001-0001</t>
+  </si>
+  <si>
+    <t>5000-001-0002</t>
+  </si>
+  <si>
+    <t>5000-001-0003</t>
+  </si>
+  <si>
+    <t>5000-001-0004</t>
+  </si>
+  <si>
+    <t>5000-001-0005</t>
+  </si>
+  <si>
+    <t>5000-001-0006</t>
+  </si>
+  <si>
+    <t>5000-001-0007</t>
+  </si>
+  <si>
+    <t>5000-001-0008</t>
+  </si>
+  <si>
+    <t>5000-001-0009</t>
+  </si>
+  <si>
+    <t>5000-001-0010</t>
+  </si>
+  <si>
+    <t>คอมพิวเตอร์ PC</t>
+  </si>
+  <si>
+    <t>notebook</t>
   </si>
   <si>
     <t>นาง วัลลาภ์ นุตะมาน</t>
   </si>
   <si>
-    <t>nameobject</t>
-  </si>
-  <si>
-    <t>nameuser</t>
-  </si>
-  <si>
-    <t>materialid</t>
-  </si>
-  <si>
-    <t>7430-001-0005</t>
-  </si>
-  <si>
-    <t>7110-002-0005</t>
-  </si>
-  <si>
-    <t>7430-001-0006</t>
-  </si>
-  <si>
-    <t>7110-002-0006</t>
-  </si>
-  <si>
-    <t>เครื่องปรับอากาศ</t>
-  </si>
-  <si>
-    <t>4A06</t>
-  </si>
-  <si>
-    <t>4A07</t>
-  </si>
-  <si>
-    <t>4A08</t>
-  </si>
-  <si>
-    <t>4A09</t>
-  </si>
-  <si>
-    <t>ประหยัดไฟ misubishi</t>
-  </si>
-  <si>
-    <t>ปรับความเย็น 10 ระดับ</t>
-  </si>
-  <si>
-    <t>ประหยัดไฟ</t>
+    <t>นางสาว กุลวรางค์ นุตะมาน</t>
+  </si>
+  <si>
+    <t>ห้องประชุมชั้น7</t>
+  </si>
+  <si>
+    <t>4A01</t>
+  </si>
+  <si>
+    <t>5A01</t>
+  </si>
+  <si>
+    <t>6A01</t>
+  </si>
+  <si>
+    <t>7A01</t>
+  </si>
+  <si>
+    <t>จำหน่าย</t>
   </si>
 </sst>
 </file>
@@ -421,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,20 +469,20 @@
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -463,94 +499,232 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>6500</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>25000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
+      <c r="G2">
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>15000</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>25000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="G3">
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>15000</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>25000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
+      <c r="G4">
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>15000</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>25000</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>17000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>29000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>29000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>29000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>29000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>29000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
